--- a/monitoring/ProjectPlan.xlsx
+++ b/monitoring/ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9754F9A1-ACC9-452F-B890-6F715599D614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E123C453-64B3-4097-9056-5BB07B3F9183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,37 +50,6 @@
   <si>
     <t>9/12 
 Discussion on Brain</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">16/12 Discussion on Embedded
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">18/12 receive car kit
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>19/12 Discussion on Computer</t>
-    </r>
   </si>
   <si>
     <t>Sensing and input working package</t>
@@ -264,6 +233,41 @@
     <t xml:space="preserve">Team should show autonomous features complete (car can react to any obstacle on the map).
 </t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16/12 Discussion on Embedded
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>18/12 receive car kit</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>19/12 Discussion on Computer</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -274,7 +278,7 @@
     <numFmt numFmtId="165" formatCode="d&quot;-&quot;mmm"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -312,6 +316,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -998,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1333,82 +1351,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1446,10 +1388,6 @@
     <xf numFmtId="166" fontId="4" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1472,6 +1410,89 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1709,7 +1730,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1722,7 +1743,7 @@
     <col min="6" max="6" width="21.44140625" customWidth="1"/>
     <col min="7" max="9" width="5.77734375" customWidth="1"/>
     <col min="10" max="10" width="15.109375" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="5.77734375" customWidth="1"/>
     <col min="14" max="14" width="15.109375" customWidth="1"/>
@@ -1836,111 +1857,111 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="160" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="120" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="152">
+      <c r="B2" s="112">
         <v>45614</v>
       </c>
-      <c r="C2" s="152">
+      <c r="C2" s="112">
         <f t="shared" ref="C2:Z2" si="1">B2+7</f>
         <v>45621</v>
       </c>
-      <c r="D2" s="152">
+      <c r="D2" s="112">
         <f t="shared" si="1"/>
         <v>45628</v>
       </c>
-      <c r="E2" s="153">
+      <c r="E2" s="113">
         <f t="shared" si="1"/>
         <v>45635</v>
       </c>
-      <c r="F2" s="154">
+      <c r="F2" s="114">
         <f t="shared" si="1"/>
         <v>45642</v>
       </c>
-      <c r="G2" s="154">
+      <c r="G2" s="114">
         <f t="shared" si="1"/>
         <v>45649</v>
       </c>
-      <c r="H2" s="152">
+      <c r="H2" s="112">
         <f t="shared" si="1"/>
         <v>45656</v>
       </c>
-      <c r="I2" s="152">
+      <c r="I2" s="112">
         <f t="shared" si="1"/>
         <v>45663</v>
       </c>
-      <c r="J2" s="153">
+      <c r="J2" s="113">
         <f t="shared" si="1"/>
         <v>45670</v>
       </c>
-      <c r="K2" s="152">
+      <c r="K2" s="112">
         <f t="shared" si="1"/>
         <v>45677</v>
       </c>
-      <c r="L2" s="155">
+      <c r="L2" s="115">
         <f t="shared" si="1"/>
         <v>45684</v>
       </c>
-      <c r="M2" s="152">
+      <c r="M2" s="112">
         <f t="shared" si="1"/>
         <v>45691</v>
       </c>
-      <c r="N2" s="153">
+      <c r="N2" s="113">
         <f t="shared" si="1"/>
         <v>45698</v>
       </c>
-      <c r="O2" s="152">
+      <c r="O2" s="112">
         <f t="shared" si="1"/>
         <v>45705</v>
       </c>
-      <c r="P2" s="152">
+      <c r="P2" s="112">
         <f t="shared" si="1"/>
         <v>45712</v>
       </c>
-      <c r="Q2" s="152">
+      <c r="Q2" s="112">
         <f t="shared" si="1"/>
         <v>45719</v>
       </c>
-      <c r="R2" s="156">
+      <c r="R2" s="116">
         <f t="shared" si="1"/>
         <v>45726</v>
       </c>
-      <c r="S2" s="157">
+      <c r="S2" s="117">
         <f t="shared" si="1"/>
         <v>45733</v>
       </c>
-      <c r="T2" s="152">
+      <c r="T2" s="112">
         <f t="shared" si="1"/>
         <v>45740</v>
       </c>
-      <c r="U2" s="152">
+      <c r="U2" s="112">
         <f t="shared" si="1"/>
         <v>45747</v>
       </c>
-      <c r="V2" s="154">
+      <c r="V2" s="114">
         <f t="shared" si="1"/>
         <v>45754</v>
       </c>
-      <c r="W2" s="158">
+      <c r="W2" s="118">
         <f t="shared" si="1"/>
         <v>45761</v>
       </c>
-      <c r="X2" s="152">
+      <c r="X2" s="112">
         <f t="shared" si="1"/>
         <v>45768</v>
       </c>
-      <c r="Y2" s="152">
+      <c r="Y2" s="112">
         <f t="shared" si="1"/>
         <v>45775</v>
       </c>
-      <c r="Z2" s="159">
+      <c r="Z2" s="119">
         <f t="shared" si="1"/>
         <v>45782</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -1950,8 +1971,8 @@
       <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>4</v>
+      <c r="F3" s="175" t="s">
+        <v>60</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -1974,37 +1995,37 @@
       <c r="Y3" s="17"/>
       <c r="Z3" s="20"/>
     </row>
-    <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="147" t="s">
+    <row r="4" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="C4" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="D4" s="143"/>
+      <c r="E4" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="120"/>
-      <c r="E4" s="147" t="s">
+      <c r="F4" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="136" t="s">
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="123" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="124"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="139"/>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
@@ -2012,31 +2033,31 @@
       <c r="W4" s="23"/>
       <c r="X4" s="24"/>
       <c r="Y4" s="25"/>
-      <c r="Z4" s="126" t="s">
-        <v>11</v>
+      <c r="Z4" s="163" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="148"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="148"/>
+      <c r="A5" s="134"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
       <c r="H5" s="28"/>
-      <c r="I5" s="130" t="s">
-        <v>12</v>
+      <c r="I5" s="148" t="s">
+        <v>11</v>
       </c>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="132"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="149"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="149"/>
+      <c r="R5" s="150"/>
       <c r="S5" s="29"/>
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
@@ -2044,14 +2065,14 @@
       <c r="W5" s="32"/>
       <c r="X5" s="30"/>
       <c r="Y5" s="33"/>
-      <c r="Z5" s="121"/>
-    </row>
-    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="149"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="148"/>
+      <c r="Z5" s="144"/>
+    </row>
+    <row r="6" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="135"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="134"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="30"/>
@@ -2065,48 +2086,48 @@
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
       <c r="R6" s="37"/>
-      <c r="S6" s="137" t="s">
+      <c r="S6" s="154" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="155"/>
+      <c r="U6" s="155"/>
+      <c r="V6" s="156"/>
+      <c r="W6" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="139"/>
-      <c r="W6" s="127" t="s">
+      <c r="X6" s="152"/>
+      <c r="Y6" s="153"/>
+      <c r="Z6" s="144"/>
+    </row>
+    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="121"/>
-    </row>
-    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="147" t="s">
+      <c r="B7" s="142"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="136" t="s">
+      <c r="G7" s="138"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="125"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="123" t="s">
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="141" t="s">
+      <c r="M7" s="138"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="125"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="124"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="139"/>
       <c r="S7" s="21"/>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
@@ -2114,14 +2135,14 @@
       <c r="W7" s="39"/>
       <c r="X7" s="40"/>
       <c r="Y7" s="41"/>
-      <c r="Z7" s="121"/>
-    </row>
-    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="148"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="148"/>
+      <c r="Z7" s="144"/>
+    </row>
+    <row r="8" spans="1:26" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="134"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="134"/>
       <c r="F8" s="42"/>
       <c r="G8" s="43"/>
       <c r="H8" s="44"/>
@@ -2129,31 +2150,31 @@
       <c r="J8" s="45"/>
       <c r="K8" s="44"/>
       <c r="L8" s="46"/>
-      <c r="M8" s="144" t="s">
+      <c r="M8" s="158" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="160"/>
+      <c r="S8" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="146"/>
-      <c r="S8" s="130" t="s">
-        <v>21</v>
-      </c>
-      <c r="T8" s="131"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="132"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="150"/>
       <c r="W8" s="47"/>
       <c r="X8" s="44"/>
       <c r="Y8" s="48"/>
-      <c r="Z8" s="121"/>
+      <c r="Z8" s="144"/>
     </row>
     <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="148"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="148"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="134"/>
       <c r="F9" s="49"/>
       <c r="G9" s="50"/>
       <c r="H9" s="44"/>
@@ -2163,29 +2184,29 @@
       <c r="L9" s="46"/>
       <c r="M9" s="52"/>
       <c r="N9" s="53"/>
-      <c r="O9" s="130" t="s">
+      <c r="O9" s="148" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="149"/>
+      <c r="Q9" s="149"/>
+      <c r="R9" s="150"/>
+      <c r="S9" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="131"/>
-      <c r="U9" s="131"/>
-      <c r="V9" s="132"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="149"/>
+      <c r="V9" s="150"/>
       <c r="W9" s="47"/>
       <c r="X9" s="44"/>
       <c r="Y9" s="48"/>
-      <c r="Z9" s="121"/>
+      <c r="Z9" s="144"/>
     </row>
     <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="148"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="148"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="134"/>
       <c r="F10" s="49"/>
       <c r="G10" s="50"/>
       <c r="H10" s="44"/>
@@ -2195,27 +2216,27 @@
       <c r="L10" s="46"/>
       <c r="M10" s="52"/>
       <c r="N10" s="53"/>
-      <c r="O10" s="130" t="s">
-        <v>24</v>
+      <c r="O10" s="148" t="s">
+        <v>23</v>
       </c>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="131"/>
-      <c r="V10" s="132"/>
+      <c r="P10" s="149"/>
+      <c r="Q10" s="149"/>
+      <c r="R10" s="149"/>
+      <c r="S10" s="149"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="149"/>
+      <c r="V10" s="150"/>
       <c r="W10" s="47"/>
       <c r="X10" s="44"/>
       <c r="Y10" s="48"/>
-      <c r="Z10" s="121"/>
+      <c r="Z10" s="144"/>
     </row>
     <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="149"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="148"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="134"/>
       <c r="F11" s="54"/>
       <c r="G11" s="54"/>
       <c r="H11" s="55"/>
@@ -2233,40 +2254,40 @@
       <c r="T11" s="44"/>
       <c r="U11" s="44"/>
       <c r="V11" s="49"/>
-      <c r="W11" s="127" t="s">
-        <v>14</v>
+      <c r="W11" s="151" t="s">
+        <v>13</v>
       </c>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="129"/>
-      <c r="Z11" s="121"/>
+      <c r="X11" s="152"/>
+      <c r="Y11" s="153"/>
+      <c r="Z11" s="144"/>
     </row>
     <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="150" t="s">
+      <c r="A12" s="136" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="136" t="s">
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="136" t="s">
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="139"/>
+      <c r="O12" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="136" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="125"/>
-      <c r="R12" s="124"/>
+      <c r="P12" s="138"/>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="139"/>
       <c r="S12" s="40"/>
       <c r="T12" s="40"/>
       <c r="U12" s="40"/>
@@ -2274,29 +2295,29 @@
       <c r="W12" s="60"/>
       <c r="X12" s="61"/>
       <c r="Y12" s="62"/>
-      <c r="Z12" s="121"/>
+      <c r="Z12" s="144"/>
     </row>
     <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="148"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="148"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="134"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
       <c r="J13" s="63"/>
-      <c r="K13" s="130" t="s">
-        <v>29</v>
+      <c r="K13" s="148" t="s">
+        <v>28</v>
       </c>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="132"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="150"/>
       <c r="S13" s="44"/>
       <c r="T13" s="44"/>
       <c r="U13" s="44"/>
@@ -2304,14 +2325,14 @@
       <c r="W13" s="64"/>
       <c r="X13" s="52"/>
       <c r="Y13" s="65"/>
-      <c r="Z13" s="121"/>
-    </row>
-    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="148"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="148"/>
+      <c r="Z13" s="144"/>
+    </row>
+    <row r="14" spans="1:26" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="134"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="134"/>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
       <c r="H14" s="55"/>
@@ -2325,67 +2346,67 @@
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="67"/>
-      <c r="S14" s="137" t="s">
+      <c r="S14" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="155"/>
+      <c r="U14" s="155"/>
+      <c r="V14" s="156"/>
+      <c r="W14" s="151" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="153"/>
+      <c r="Z14" s="144"/>
+    </row>
+    <row r="15" spans="1:26" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="T14" s="138"/>
-      <c r="U14" s="138"/>
-      <c r="V14" s="139"/>
-      <c r="W14" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="X14" s="128"/>
-      <c r="Y14" s="129"/>
-      <c r="Z14" s="121"/>
-    </row>
-    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="147" t="s">
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="136" t="s">
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="141" t="s">
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="136" t="s">
+      <c r="P15" s="138"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="125"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="142" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" s="125"/>
-      <c r="U15" s="125"/>
-      <c r="V15" s="124"/>
+      <c r="T15" s="138"/>
+      <c r="U15" s="138"/>
+      <c r="V15" s="139"/>
       <c r="W15" s="39"/>
       <c r="X15" s="40"/>
       <c r="Y15" s="41"/>
-      <c r="Z15" s="121"/>
+      <c r="Z15" s="144"/>
     </row>
     <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="151"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="149"/>
+      <c r="A16" s="147"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="135"/>
       <c r="F16" s="68"/>
       <c r="G16" s="69"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="116"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="168"/>
       <c r="J16" s="70"/>
       <c r="K16" s="55"/>
       <c r="L16" s="71"/>
@@ -2399,70 +2420,70 @@
       <c r="T16" s="44"/>
       <c r="U16" s="44"/>
       <c r="V16" s="49"/>
-      <c r="W16" s="127" t="s">
-        <v>14</v>
+      <c r="W16" s="151" t="s">
+        <v>13</v>
       </c>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="129"/>
-      <c r="Z16" s="121"/>
-    </row>
-    <row r="17" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="117" t="s">
+      <c r="X16" s="152"/>
+      <c r="Y16" s="153"/>
+      <c r="Z16" s="144"/>
+    </row>
+    <row r="17" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="141" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="141"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="123" t="s">
+      <c r="F17" s="139"/>
+      <c r="G17" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="124"/>
-      <c r="G17" s="123" t="s">
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="123" t="s">
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="139"/>
+      <c r="O17" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="123" t="s">
+      <c r="P17" s="138"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="139"/>
+      <c r="S17" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="142" t="s">
-        <v>41</v>
-      </c>
-      <c r="T17" s="125"/>
-      <c r="U17" s="125"/>
-      <c r="V17" s="124"/>
+      <c r="T17" s="138"/>
+      <c r="U17" s="138"/>
+      <c r="V17" s="139"/>
       <c r="W17" s="39"/>
       <c r="X17" s="40"/>
       <c r="Y17" s="41"/>
-      <c r="Z17" s="121"/>
-    </row>
-    <row r="18" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="143" t="s">
+      <c r="Z17" s="144"/>
+    </row>
+    <row r="18" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="142"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="162" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="130" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="132"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="150"/>
       <c r="M18" s="55"/>
       <c r="N18" s="53"/>
       <c r="O18" s="57"/>
@@ -2476,20 +2497,20 @@
       <c r="W18" s="74"/>
       <c r="X18" s="57"/>
       <c r="Y18" s="75"/>
-      <c r="Z18" s="121"/>
+      <c r="Z18" s="144"/>
     </row>
     <row r="19" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="118"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="130" t="s">
-        <v>44</v>
+      <c r="A19" s="142"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="148" t="s">
+        <v>43</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="132"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="150"/>
       <c r="J19" s="76"/>
       <c r="K19" s="52"/>
       <c r="L19" s="77"/>
@@ -2506,13 +2527,13 @@
       <c r="W19" s="74"/>
       <c r="X19" s="57"/>
       <c r="Y19" s="75"/>
-      <c r="Z19" s="121"/>
+      <c r="Z19" s="144"/>
     </row>
     <row r="20" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="119"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="122"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
       <c r="E20" s="78"/>
       <c r="F20" s="79"/>
       <c r="G20" s="80"/>
@@ -2531,139 +2552,139 @@
       <c r="T20" s="81"/>
       <c r="U20" s="44"/>
       <c r="V20" s="88"/>
-      <c r="W20" s="133" t="s">
-        <v>14</v>
+      <c r="W20" s="164" t="s">
+        <v>13</v>
       </c>
-      <c r="X20" s="134"/>
-      <c r="Y20" s="135"/>
-      <c r="Z20" s="122"/>
-    </row>
-    <row r="21" spans="1:26" s="160" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="X20" s="165"/>
+      <c r="Y20" s="166"/>
+      <c r="Z20" s="146"/>
+    </row>
+    <row r="21" spans="1:26" s="120" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="164">
+      <c r="B21" s="121"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="124">
         <v>45642</v>
       </c>
-      <c r="F21" s="165"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="164">
+      <c r="F21" s="169"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124">
         <v>45677</v>
       </c>
-      <c r="K21" s="163"/>
-      <c r="L21" s="167"/>
-      <c r="M21" s="168"/>
-      <c r="N21" s="164">
+      <c r="K21" s="123"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="124">
         <v>45705</v>
       </c>
-      <c r="O21" s="163"/>
-      <c r="P21" s="163"/>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="169">
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="127">
         <v>45733</v>
       </c>
-      <c r="S21" s="170"/>
-      <c r="T21" s="163"/>
-      <c r="U21" s="171"/>
-      <c r="V21" s="172"/>
-      <c r="W21" s="173">
+      <c r="S21" s="128"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="129"/>
+      <c r="V21" s="130"/>
+      <c r="W21" s="131">
         <v>45768</v>
       </c>
-      <c r="X21" s="163"/>
-      <c r="Y21" s="163"/>
-      <c r="Z21" s="174">
+      <c r="X21" s="123"/>
+      <c r="Y21" s="123"/>
+      <c r="Z21" s="132">
         <v>45798</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="90"/>
       <c r="E22" s="91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="113"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="172"/>
       <c r="H22" s="90"/>
       <c r="I22" s="90"/>
       <c r="J22" s="91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22" s="90"/>
       <c r="L22" s="92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M22" s="93"/>
       <c r="N22" s="91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O22" s="90"/>
       <c r="P22" s="90"/>
       <c r="Q22" s="90"/>
       <c r="R22" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S22" s="95"/>
       <c r="T22" s="90"/>
       <c r="U22" s="96"/>
       <c r="V22" s="97"/>
       <c r="W22" s="98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X22" s="90"/>
       <c r="Y22" s="90"/>
       <c r="Z22" s="99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="102" x14ac:dyDescent="0.25">
       <c r="A23" s="100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="100"/>
       <c r="C23" s="100"/>
       <c r="D23" s="101"/>
       <c r="E23" s="102" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
-      <c r="F23" s="114"/>
-      <c r="G23" s="113"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="172"/>
       <c r="H23" s="101"/>
       <c r="I23" s="101"/>
       <c r="J23" s="102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K23" s="101"/>
       <c r="L23" s="103"/>
       <c r="M23" s="104"/>
       <c r="N23" s="102" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O23" s="101"/>
       <c r="P23" s="101"/>
       <c r="Q23" s="101"/>
       <c r="R23" s="105" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S23" s="106"/>
       <c r="T23" s="101"/>
       <c r="U23" s="107"/>
       <c r="V23" s="108"/>
       <c r="W23" s="109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X23" s="101"/>
       <c r="Y23" s="101"/>
       <c r="Z23" s="110" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2695,13 +2716,13 @@
       <c r="Z24" s="68"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
+      <c r="A25" s="174"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
       <c r="H25" s="68"/>
       <c r="I25" s="68"/>
       <c r="J25" s="68"/>
@@ -2723,16 +2744,16 @@
       <c r="Z25" s="68"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="115"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
+      <c r="A26" s="174"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="168"/>
       <c r="K26" s="68"/>
       <c r="L26" s="68"/>
       <c r="M26" s="68"/>
@@ -2751,13 +2772,13 @@
       <c r="Z26" s="68"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="115"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
+      <c r="A27" s="174"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="168"/>
       <c r="H27" s="68"/>
       <c r="I27" s="68"/>
       <c r="J27" s="68"/>
@@ -30080,33 +30101,16 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B4:B16"/>
-    <mergeCell ref="C4:D16"/>
-    <mergeCell ref="E4:E16"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="O10:V10"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:D20"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="M4:R4"/>
     <mergeCell ref="Z4:Z20"/>
     <mergeCell ref="W6:Y6"/>
@@ -30123,16 +30127,33 @@
     <mergeCell ref="S15:V15"/>
     <mergeCell ref="W16:Y16"/>
     <mergeCell ref="G17:J17"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:D20"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="O10:V10"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B4:B16"/>
+    <mergeCell ref="C4:D16"/>
+    <mergeCell ref="E4:E16"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <conditionalFormatting sqref="A21:Z21">
     <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="today">
